--- a/biology/Botanique/Rosa_×waitziana_nothovar._macrantha/Rosa_×waitziana_nothovar._macrantha.xlsx
+++ b/biology/Botanique/Rosa_×waitziana_nothovar._macrantha/Rosa_×waitziana_nothovar._macrantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97waitziana_nothovar._macrantha</t>
+          <t>Rosa_×waitziana_nothovar._macrantha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa ×waitziana nothovar. macrantha est une variété hybride de plantes à fleurs du genre Rosa et de la famille des Rosaceae. 
 Synonyme : Rosa ×macrantha N.H.F.Desp.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97waitziana_nothovar._macrantha</t>
+          <t>Rosa_×waitziana_nothovar._macrantha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Rosa ×waitziana</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un hybride spontané  (Rosa gallica[1] × Rosa canina) apparu en Europe centrale et fréquent en lisière de forêt. D'une hauteur de 2 m, il présente des feuilles à 5 à 7 folioles et des fleurs roses assez grandes (6 à 8 cm)
-Rosa ×waitziana nothovar. macrantha
-Cette variété se différencie par une taille moindre (1,5 m) des fleurs semi-doubles groupées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un hybride spontané  (Rosa gallica × Rosa canina) apparu en Europe centrale et fréquent en lisière de forêt. D'une hauteur de 2 m, il présente des feuilles à 5 à 7 folioles et des fleurs roses assez grandes (6 à 8 cm)
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97waitziana_nothovar._macrantha</t>
+          <t>Rosa_×waitziana_nothovar._macrantha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Rosa ×waitziana</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rosa ×waitziana nothovar. macrantha</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété se différencie par une taille moindre (1,5 m) des fleurs semi-doubles groupées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rosa_×waitziana_nothovar._macrantha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa_%C3%97waitziana_nothovar._macrantha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il ne faut pas confondre avec Rosa ×macrantha hort. non N.H.F.Desp. ou Rosa 'Macrantha'. Celui-ci est peu aiguillonné et présente en juin des fleurs roses odorantes, en bouquets. 
 Ses hybrides sont :
